--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Sept 2020 - Jan 2021\Grade 2018\MilestoneCompletion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDCB294-6F12-4C8D-BC47-562F9222D869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1DA7A4-FAD2-4CDC-BC10-228917E7A289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="83">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -729,7 +729,7 @@
   <dimension ref="A1:AF60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +761,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="6">
         <f ca="1">TODAY()</f>
-        <v>44095</v>
+        <v>44099</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1153,7 +1153,9 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
@@ -1176,7 +1178,9 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
@@ -1199,7 +1203,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1222,7 +1228,9 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1245,7 +1253,9 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1268,7 +1278,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1291,7 +1303,9 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Sept 2020 - Jan 2021\Grade 2018\MilestoneCompletion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1DA7A4-FAD2-4CDC-BC10-228917E7A289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="86">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -274,17 +268,29 @@
   </si>
   <si>
     <t>ZhongQi</t>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +298,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -300,7 +306,7 @@
       <b/>
       <sz val="15"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -308,7 +314,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -316,8 +322,15 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -393,7 +406,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -428,7 +441,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -506,7 +519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,7 +554,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,21 +731,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
@@ -740,19 +753,19 @@
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" customWidth="1"/>
     <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
         <v>81</v>
@@ -761,7 +774,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="6">
         <f ca="1">TODAY()</f>
-        <v>44099</v>
+        <v>44102</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -779,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -801,7 +814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -816,7 +829,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -859,7 +872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="4">
         <v>1</v>
@@ -874,13 +887,15 @@
         <v>20</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="M5" s="1"/>
       <c r="O5" s="5" t="s">
@@ -891,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -906,7 +921,9 @@
         <v>21</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -920,10 +937,10 @@
       </c>
       <c r="P6" s="3">
         <f>ROUND(COUNTIF(G$5:G$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="4">
         <v>3</v>
@@ -938,7 +955,9 @@
         <v>22</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -955,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4">
         <v>4</v>
@@ -970,7 +989,9 @@
         <v>23</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -987,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="4">
         <v>5</v>
@@ -1002,7 +1023,9 @@
         <v>24</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1019,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="4">
         <v>6</v>
@@ -1034,7 +1057,9 @@
         <v>25</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1051,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4">
         <v>7</v>
@@ -1066,7 +1091,9 @@
         <v>26</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1080,10 +1107,10 @@
       </c>
       <c r="P11" s="3">
         <f>AVERAGE(P5:P10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4">
         <v>8</v>
@@ -1098,7 +1125,9 @@
         <v>27</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1108,7 +1137,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4">
         <v>9</v>
@@ -1123,7 +1152,9 @@
         <v>28</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1133,7 +1164,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4">
         <v>10</v>
@@ -1148,7 +1179,9 @@
         <v>14</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1158,7 +1191,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="4">
         <v>11</v>
@@ -1173,7 +1206,9 @@
         <v>29</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1183,7 +1218,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="4">
         <v>12</v>
@@ -1198,7 +1233,9 @@
         <v>30</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1208,7 +1245,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="4">
         <v>13</v>
@@ -1223,7 +1260,9 @@
         <v>31</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1233,7 +1272,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="4">
         <v>14</v>
@@ -1248,7 +1287,9 @@
         <v>32</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1258,7 +1299,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="4">
         <v>15</v>
@@ -1273,7 +1314,9 @@
         <v>33</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1283,7 +1326,7 @@
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="4">
         <v>16</v>
@@ -1298,7 +1341,9 @@
         <v>34</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1308,7 +1353,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="4">
         <v>17</v>
@@ -1331,7 +1376,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="4">
         <v>18</v>
@@ -1354,7 +1399,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4">
         <v>19</v>
@@ -1377,7 +1422,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="4">
         <v>20</v>
@@ -1400,7 +1445,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="4">
         <v>21</v>
@@ -1423,7 +1468,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="4">
         <v>22</v>
@@ -1446,7 +1491,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="4">
         <v>23</v>
@@ -1469,7 +1514,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="4">
         <v>24</v>
@@ -1492,7 +1537,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4">
         <v>25</v>
@@ -1515,7 +1560,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4">
         <v>26</v>
@@ -1538,7 +1583,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="4">
         <v>27</v>
@@ -1561,7 +1606,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="4">
         <v>28</v>
@@ -1584,7 +1629,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="4">
         <v>29</v>
@@ -1607,7 +1652,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="4">
         <v>30</v>
@@ -1630,7 +1675,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="4">
         <v>31</v>
@@ -1653,7 +1698,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="4">
         <v>32</v>
@@ -1676,7 +1721,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="4">
         <v>33</v>
@@ -1699,7 +1744,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="4">
         <v>34</v>
@@ -1722,7 +1767,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="4">
         <v>35</v>
@@ -1745,7 +1790,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="4">
         <v>36</v>
@@ -1768,7 +1813,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="4">
         <v>37</v>
@@ -1791,7 +1836,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="4">
         <v>38</v>
@@ -1814,7 +1859,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="4">
         <v>39</v>
@@ -1837,7 +1882,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="4">
         <v>40</v>
@@ -1860,7 +1905,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="4">
         <v>41</v>
@@ -1883,7 +1928,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="4">
         <v>42</v>
@@ -1906,7 +1951,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="4">
         <v>43</v>
@@ -1929,7 +1974,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="4">
         <v>44</v>
@@ -1952,7 +1997,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="4">
         <v>45</v>
@@ -1975,7 +2020,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="4">
         <v>46</v>
@@ -1998,7 +2043,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="4">
         <v>47</v>
@@ -2021,7 +2066,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="4">
         <v>48</v>
@@ -2044,7 +2089,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="4">
         <v>49</v>
@@ -2067,7 +2112,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="4">
         <v>50</v>
@@ -2090,7 +2135,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="4">
         <v>51</v>
@@ -2113,7 +2158,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="4">
         <v>52</v>
@@ -2136,7 +2181,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="4">
         <v>53</v>
@@ -2159,7 +2204,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="4">
         <v>54</v>
@@ -2182,7 +2227,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2197,7 +2242,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2216,8 +2261,9 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:L58" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:L58">
       <formula1>$AE$1:$AE$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7270" tabRatio="506"/>
+    <workbookView windowWidth="22368" windowHeight="9564" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -270,12 +270,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,28 +317,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -352,38 +330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +361,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -435,22 +421,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -466,8 +436,31 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +493,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -512,175 +565,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +692,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,46 +735,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,6 +755,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -806,151 +778,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,8 +1049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11148060" y="124460"/>
-          <a:ext cx="947420" cy="309245"/>
+          <a:off x="10952480" y="124460"/>
+          <a:ext cx="934720" cy="323215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1336,30 +1323,30 @@
   <dimension ref="A1:AF60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.10909090909091" customWidth="1"/>
-    <col min="3" max="3" width="15.8909090909091" customWidth="1"/>
-    <col min="4" max="4" width="19.6636363636364" customWidth="1"/>
-    <col min="5" max="5" width="50.3363636363636" customWidth="1"/>
-    <col min="6" max="6" width="8.89090909090909" customWidth="1"/>
-    <col min="7" max="7" width="16.5636363636364" customWidth="1"/>
-    <col min="8" max="8" width="10.3" customWidth="1"/>
-    <col min="9" max="9" width="12.1090909090909" customWidth="1"/>
-    <col min="10" max="10" width="7.89090909090909" customWidth="1"/>
-    <col min="11" max="11" width="10.1090909090909" customWidth="1"/>
-    <col min="12" max="12" width="26.3363636363636" customWidth="1"/>
-    <col min="15" max="15" width="11.4454545454545" customWidth="1"/>
-    <col min="16" max="16" width="13.5545454545455" customWidth="1"/>
-    <col min="31" max="31" width="12.6636363636364" customWidth="1"/>
-    <col min="32" max="32" width="4.44545454545455" customWidth="1"/>
+    <col min="2" max="2" width="7.11111111111111" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="50.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="8.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="16.5648148148148" customWidth="1"/>
+    <col min="8" max="8" width="10.2962962962963" customWidth="1"/>
+    <col min="9" max="9" width="12.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
+    <col min="11" max="11" width="10.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="11.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="13.5555555555556" customWidth="1"/>
+    <col min="31" max="31" width="12.6666666666667" customWidth="1"/>
+    <col min="32" max="32" width="4.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" spans="1:32">
+    <row r="1" ht="19.2" spans="1:32">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1423,7 +1410,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" ht="15" spans="1:16">
+    <row r="4" ht="15.6" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1487,7 +1474,9 @@
       <c r="H5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6" t="s">
@@ -1523,7 +1512,9 @@
       <c r="H6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
@@ -1559,7 +1550,9 @@
       <c r="H7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
@@ -1595,7 +1588,9 @@
       <c r="H8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
@@ -1607,7 +1602,7 @@
       </c>
       <c r="P8" s="6">
         <f>ROUND(COUNTIF(I$5:I$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1631,7 +1626,9 @@
       <c r="H9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
@@ -1667,7 +1664,9 @@
       <c r="H10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
@@ -1703,7 +1702,9 @@
       <c r="H11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
@@ -1715,7 +1716,7 @@
       </c>
       <c r="P11" s="6">
         <f>AVERAGE(P5:P10)</f>
-        <v>29.1666666666667</v>
+        <v>43.8333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1739,7 +1740,9 @@
       <c r="H12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
@@ -1768,7 +1771,9 @@
       <c r="H13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
@@ -1797,7 +1802,9 @@
       <c r="H14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6" t="s">
@@ -1826,7 +1833,9 @@
       <c r="H15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6" t="s">
@@ -1855,7 +1864,9 @@
       <c r="H16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6" t="s">
@@ -1882,7 +1893,9 @@
         <v>1</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6" t="s">
@@ -1909,7 +1922,9 @@
         <v>1</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6" t="s">

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9564" tabRatio="506"/>
+    <workbookView windowWidth="20543" windowHeight="8820" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -268,8 +268,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,13 +316,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,19 +469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.599963377788629"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,8 +491,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -371,26 +701,315 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -401,7 +1020,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -423,7 +1042,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -436,7 +1055,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10952480" y="124460"/>
+          <a:off x="10954385" y="124460"/>
           <a:ext cx="934720" cy="323215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -701,48 +1320,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" customWidth="1"/>
-    <col min="32" max="32" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.11111111111111" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="50.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="8.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="16.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="12.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
+    <col min="11" max="11" width="10.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="11.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="13.5555555555556" customWidth="1"/>
+    <col min="31" max="31" width="12.6666666666667" customWidth="1"/>
+    <col min="32" max="32" width="4.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="19.2" spans="1:32">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44103</v>
+        <v>44111</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -760,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -782,7 +1401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -797,1457 +1416,1461 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.6" spans="1:16">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="6">
         <f>ROUND(COUNTIF(F$5:F$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="6">
         <f>ROUND(COUNTIF(G$5:G$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <f>ROUND(COUNTIF(H$5:H$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <f>ROUND(COUNTIF(I$5:I$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="6">
         <f>ROUND(COUNTIF(K$5:K$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="6">
         <f>ROUND(COUNTIF(J$5:J$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="6">
         <f>AVERAGE(P5:P10)</f>
-        <v>43.8333333333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+        <v>45.8333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>18</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1"/>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>19</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>20</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>21</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>22</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>23</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>24</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>25</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1"/>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>26</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1"/>
-      <c r="B31" s="4">
+      <c r="B31" s="5">
         <v>27</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1"/>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <v>28</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1"/>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>29</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1"/>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>30</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1"/>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>31</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1"/>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>32</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1"/>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>33</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1"/>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>34</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1"/>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>35</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1"/>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <v>36</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1"/>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>37</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1"/>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>38</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1"/>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>39</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1"/>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>40</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1"/>
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <v>41</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1"/>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>42</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1"/>
-      <c r="B47" s="4">
+      <c r="B47" s="5">
         <v>43</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1"/>
-      <c r="B48" s="4">
+      <c r="B48" s="5">
         <v>44</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1"/>
-      <c r="B49" s="4">
+      <c r="B49" s="5">
         <v>45</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1"/>
-      <c r="B50" s="4">
+      <c r="B50" s="5">
         <v>46</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1"/>
-      <c r="B51" s="4">
+      <c r="B51" s="5">
         <v>47</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1"/>
-      <c r="B52" s="4">
+      <c r="B52" s="5">
         <v>48</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1"/>
-      <c r="B53" s="4">
+      <c r="B53" s="5">
         <v>49</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1"/>
-      <c r="B54" s="4">
+      <c r="B54" s="5">
         <v>50</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="1"/>
-      <c r="B55" s="4">
+      <c r="B55" s="5">
         <v>51</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1"/>
-      <c r="B56" s="4">
+      <c r="B56" s="5">
         <v>52</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="1"/>
-      <c r="B57" s="4">
+      <c r="B57" s="5">
         <v>53</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="1"/>
-      <c r="B58" s="4">
+      <c r="B58" s="5">
         <v>54</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2262,7 +2885,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2281,14 +2904,14 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H16 F5:G16 I5:L16 F17:L58">
       <formula1>$AE$1:$AE$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20543" windowHeight="8820" tabRatio="506"/>
+    <workbookView windowWidth="19200" windowHeight="7270" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -270,8 +270,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -316,74 +316,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +341,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,9 +399,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,9 +424,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,8 +437,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,187 +493,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,21 +697,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -735,17 +714,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,6 +742,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,25 +793,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,133 +811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,8 +1049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10954385" y="124460"/>
-          <a:ext cx="934720" cy="323215"/>
+          <a:off x="11149965" y="124460"/>
+          <a:ext cx="947420" cy="309245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1329,30 +1323,30 @@
   <dimension ref="A1:AF60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H17" sqref="H17:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.11111111111111" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="50.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="8.88888888888889" customWidth="1"/>
-    <col min="7" max="7" width="16.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
-    <col min="11" max="11" width="10.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="11.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="13.5555555555556" customWidth="1"/>
-    <col min="31" max="31" width="12.6666666666667" customWidth="1"/>
-    <col min="32" max="32" width="4.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="7.10909090909091" customWidth="1"/>
+    <col min="3" max="3" width="15.8909090909091" customWidth="1"/>
+    <col min="4" max="4" width="19.6636363636364" customWidth="1"/>
+    <col min="5" max="5" width="50.3363636363636" customWidth="1"/>
+    <col min="6" max="6" width="8.89090909090909" customWidth="1"/>
+    <col min="7" max="7" width="16.5545454545455" customWidth="1"/>
+    <col min="8" max="8" width="10.3363636363636" customWidth="1"/>
+    <col min="9" max="9" width="12.1090909090909" customWidth="1"/>
+    <col min="10" max="10" width="7.89090909090909" customWidth="1"/>
+    <col min="11" max="11" width="10.1090909090909" customWidth="1"/>
+    <col min="12" max="12" width="26.3363636363636" customWidth="1"/>
+    <col min="15" max="15" width="11.4454545454545" customWidth="1"/>
+    <col min="16" max="16" width="13.5545454545455" customWidth="1"/>
+    <col min="31" max="31" width="12.6636363636364" customWidth="1"/>
+    <col min="32" max="32" width="4.44545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.2" spans="1:32">
+    <row r="1" ht="18.5" spans="1:32">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1361,7 +1355,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44111</v>
+        <v>44116</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1416,7 +1410,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" ht="15.6" spans="1:16">
+    <row r="4" ht="15" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1570,7 +1564,7 @@
       </c>
       <c r="P7" s="6">
         <f>ROUND(COUNTIF(H$5:H$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1722,7 +1716,7 @@
       </c>
       <c r="P11" s="6">
         <f>AVERAGE(P5:P10)</f>
-        <v>45.8333333333333</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1898,7 +1892,9 @@
       <c r="G17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I17" s="6" t="s">
         <v>1</v>
       </c>
@@ -1927,7 +1923,9 @@
       <c r="G18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I18" s="6" t="s">
         <v>1</v>
       </c>
@@ -1956,7 +1954,9 @@
       <c r="G19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I19" s="6" t="s">
         <v>1</v>
       </c>
@@ -1985,7 +1985,9 @@
       <c r="G20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I20" s="6" t="s">
         <v>1</v>
       </c>
@@ -2012,7 +2014,9 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2905,7 +2909,7 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H16 F5:G16 I5:L16 F17:L58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H16 H17:H21 F5:G16 I5:L16 F17:G21 I17:L21 F22:L58">
       <formula1>$AE$1:$AE$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7270" tabRatio="506"/>
+    <workbookView windowWidth="20328" windowHeight="8820" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -270,10 +270,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -316,9 +316,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,44 +355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,16 +371,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,7 +394,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,25 +408,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,8 +445,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,181 +493,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,15 +711,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -731,6 +722,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,11 +755,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,17 +785,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,10 +799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,133 +811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,8 +1049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11149965" y="124460"/>
-          <a:ext cx="947420" cy="309245"/>
+          <a:off x="10954385" y="124460"/>
+          <a:ext cx="934720" cy="323215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1323,30 +1323,30 @@
   <dimension ref="A1:AF60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H21"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.10909090909091" customWidth="1"/>
-    <col min="3" max="3" width="15.8909090909091" customWidth="1"/>
-    <col min="4" max="4" width="19.6636363636364" customWidth="1"/>
-    <col min="5" max="5" width="50.3363636363636" customWidth="1"/>
-    <col min="6" max="6" width="8.89090909090909" customWidth="1"/>
-    <col min="7" max="7" width="16.5545454545455" customWidth="1"/>
-    <col min="8" max="8" width="10.3363636363636" customWidth="1"/>
-    <col min="9" max="9" width="12.1090909090909" customWidth="1"/>
-    <col min="10" max="10" width="7.89090909090909" customWidth="1"/>
-    <col min="11" max="11" width="10.1090909090909" customWidth="1"/>
-    <col min="12" max="12" width="26.3363636363636" customWidth="1"/>
-    <col min="15" max="15" width="11.4454545454545" customWidth="1"/>
-    <col min="16" max="16" width="13.5545454545455" customWidth="1"/>
-    <col min="31" max="31" width="12.6636363636364" customWidth="1"/>
-    <col min="32" max="32" width="4.44545454545455" customWidth="1"/>
+    <col min="2" max="2" width="7.11111111111111" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="50.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="8.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="16.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="12.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
+    <col min="11" max="11" width="10.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="11.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="13.5555555555556" customWidth="1"/>
+    <col min="31" max="31" width="12.6666666666667" customWidth="1"/>
+    <col min="32" max="32" width="4.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" spans="1:32">
+    <row r="1" ht="19.2" spans="1:32">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1355,7 +1355,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44116</v>
+        <v>44122</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1410,7 +1410,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" ht="15" spans="1:16">
+    <row r="4" ht="15.6" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="P8" s="6">
         <f>ROUND(COUNTIF(I$5:I$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="P11" s="6">
         <f>AVERAGE(P5:P10)</f>
-        <v>51</v>
+        <v>53.1666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2017,7 +2017,9 @@
       <c r="H21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -2040,7 +2042,9 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="8820" tabRatio="506"/>
+    <workbookView windowWidth="22368" windowHeight="9564" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -270,10 +270,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -316,6 +316,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -325,7 +340,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,15 +348,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,30 +363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,7 +378,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,14 +424,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,36 +459,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -493,6 +493,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -505,31 +637,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,133 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,17 +696,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,19 +749,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,23 +758,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,11 +779,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,10 +799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,133 +811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1322,8 +1322,8 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1355,7 +1355,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44122</v>
+        <v>44135</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="P8" s="6">
         <f>ROUND(COUNTIF(I$5:I$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>113</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="P11" s="6">
         <f>AVERAGE(P5:P10)</f>
-        <v>53.1666666666667</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2067,7 +2067,9 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -2090,7 +2092,9 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -2113,7 +2117,9 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -2136,7 +2142,9 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -2159,7 +2167,9 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -2182,7 +2192,9 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -2205,7 +2217,9 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -2228,7 +2242,9 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9564" tabRatio="506"/>
+    <workbookView windowWidth="21720" windowHeight="9384" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -271,8 +271,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -316,16 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,27 +330,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,7 +352,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,8 +406,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,47 +422,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,9 +452,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,181 +493,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,37 +696,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,39 +726,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -793,16 +740,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,133 +811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1322,8 +1322,8 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1355,7 +1355,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44135</v>
+        <v>44143</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="P8" s="6">
         <f>ROUND(COUNTIF(I$5:I$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="P11" s="6">
         <f>AVERAGE(P5:P10)</f>
-        <v>61.5</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2635,7 +2635,9 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="I47" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
@@ -2658,7 +2660,9 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="I48" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -2681,7 +2685,9 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="I49" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\niit\Sept-2020---Jan-2021\Grade 2018\MilestoneCompletion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF0055F-CBA7-412C-BC47-6522A0CDEFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -274,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,7 +424,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -722,11 +716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -758,7 +752,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44148</v>
+        <v>44161</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -933,7 +927,7 @@
       </c>
       <c r="P6" s="5">
         <f>ROUND(COUNTIF(G$5:G$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>100</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1133,7 +1127,7 @@
       </c>
       <c r="P11" s="5">
         <f>AVERAGE(P5:P10)</f>
-        <v>104.16666666666667</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -1448,7 +1442,9 @@
         <v>44</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H21" s="5" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1473,9 @@
         <v>45</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
         <v>1</v>
@@ -1504,7 +1502,9 @@
         <v>46</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
         <v>1</v>
@@ -1531,7 +1531,9 @@
         <v>47</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5" t="s">
         <v>1</v>
@@ -1558,7 +1560,9 @@
         <v>48</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
         <v>1</v>
@@ -1585,7 +1589,9 @@
         <v>49</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
         <v>1</v>
@@ -1612,7 +1618,9 @@
         <v>50</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
         <v>1</v>
@@ -1639,7 +1647,9 @@
         <v>51</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
         <v>1</v>
@@ -1666,7 +1676,9 @@
         <v>52</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
         <v>1</v>
@@ -1693,7 +1705,9 @@
         <v>53</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5" t="s">
         <v>1</v>
@@ -2088,7 +2102,9 @@
         <v>72</v>
       </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5" t="s">
         <v>1</v>
@@ -2115,7 +2131,9 @@
         <v>73</v>
       </c>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5" t="s">
         <v>1</v>
@@ -2142,7 +2160,9 @@
         <v>74</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5" t="s">
         <v>1</v>
@@ -2169,7 +2189,9 @@
         <v>75</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -2194,7 +2216,9 @@
         <v>76</v>
       </c>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -2219,7 +2243,9 @@
         <v>77</v>
       </c>
       <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -2244,7 +2270,9 @@
         <v>78</v>
       </c>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -2269,7 +2297,9 @@
         <v>79</v>
       </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -2344,7 +2374,9 @@
         <v>82</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="G57" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -2369,7 +2401,9 @@
         <v>52</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="G58" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -2415,7 +2449,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:L58" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:L58">
       <formula1>$AE$1:$AE$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="506"/>
+    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -268,8 +268,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,14 +316,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,19 +469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.599963377788629"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,8 +491,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -372,40 +701,326 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -421,19 +1036,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -711,48 +1320,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" customWidth="1"/>
-    <col min="32" max="32" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.11111111111111" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="50.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="8.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="16.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="12.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
+    <col min="11" max="11" width="10.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="11.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="13.5555555555556" customWidth="1"/>
+    <col min="31" max="31" width="12.6666666666667" customWidth="1"/>
+    <col min="32" max="32" width="4.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="19.2" spans="1:32">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -770,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -792,7 +1401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -807,1613 +1416,1631 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.6" spans="1:16">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="6">
         <f>ROUND(COUNTIF(F$5:F$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="6">
         <f>ROUND(COUNTIF(G$5:G$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <f>ROUND(COUNTIF(H$5:H$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <f>ROUND(COUNTIF(I$5:I$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="6">
         <f>ROUND(COUNTIF(K$5:K$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="6">
         <f>ROUND(COUNTIF(J$5:J$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="6">
         <f>AVERAGE(P5:P10)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>18</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1"/>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>19</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>20</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>21</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>22</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>23</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>24</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>25</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="6"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1"/>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>26</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="6"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1"/>
-      <c r="B31" s="4">
+      <c r="B31" s="5">
         <v>27</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1"/>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <v>28</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1"/>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>29</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1"/>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>30</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1"/>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>31</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1"/>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>32</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1"/>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>33</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1"/>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>34</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1"/>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>35</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1"/>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <v>36</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1"/>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>37</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1"/>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>38</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1"/>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>39</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1"/>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>40</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1"/>
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <v>41</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1"/>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>42</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1"/>
-      <c r="B47" s="4">
+      <c r="B47" s="5">
         <v>43</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="6"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1"/>
-      <c r="B48" s="4">
+      <c r="B48" s="5">
         <v>44</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="6"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1"/>
-      <c r="B49" s="4">
+      <c r="B49" s="5">
         <v>45</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="6"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1"/>
-      <c r="B50" s="4">
+      <c r="B50" s="5">
         <v>46</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="6"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1"/>
-      <c r="B51" s="4">
+      <c r="B51" s="5">
         <v>47</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="6"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1"/>
-      <c r="B52" s="4">
+      <c r="B52" s="5">
         <v>48</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="6"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1"/>
-      <c r="B53" s="4">
+      <c r="B53" s="5">
         <v>49</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L53" s="5"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="6"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1"/>
-      <c r="B54" s="4">
+      <c r="B54" s="5">
         <v>50</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" s="6"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="1"/>
-      <c r="B55" s="4">
+      <c r="B55" s="5">
         <v>51</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" s="6"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1"/>
-      <c r="B56" s="4">
+      <c r="B56" s="5">
         <v>52</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" s="6"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="1"/>
-      <c r="B57" s="4">
+      <c r="B57" s="5">
         <v>53</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L57" s="6"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="1"/>
-      <c r="B58" s="4">
+      <c r="B58" s="5">
         <v>54</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="6"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2428,7 +3055,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2447,14 +3074,14 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:L58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F51:H51 J51:L51 I51:I58 F5:L50 F52:H58 J52:L58">
       <formula1>$AE$1:$AE$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="506"/>
+    <workbookView windowWidth="19200" windowHeight="7270" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -270,9 +270,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -316,16 +316,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,15 +332,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,15 +347,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,20 +371,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -400,7 +378,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,24 +415,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,15 +437,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,13 +493,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,169 +589,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,25 +698,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -752,25 +744,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -794,8 +777,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,10 +799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,133 +811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,8 +1049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10954385" y="124460"/>
-          <a:ext cx="934720" cy="323215"/>
+          <a:off x="11149965" y="124460"/>
+          <a:ext cx="947420" cy="309245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1328,31 +1322,31 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.11111111111111" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="50.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="8.88888888888889" customWidth="1"/>
-    <col min="7" max="7" width="16.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
-    <col min="11" max="11" width="10.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="11.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="13.5555555555556" customWidth="1"/>
-    <col min="31" max="31" width="12.6666666666667" customWidth="1"/>
-    <col min="32" max="32" width="4.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="7.10909090909091" customWidth="1"/>
+    <col min="3" max="3" width="15.8909090909091" customWidth="1"/>
+    <col min="4" max="4" width="19.6636363636364" customWidth="1"/>
+    <col min="5" max="5" width="50.3363636363636" customWidth="1"/>
+    <col min="6" max="6" width="8.89090909090909" customWidth="1"/>
+    <col min="7" max="7" width="16.5545454545455" customWidth="1"/>
+    <col min="8" max="8" width="10.3363636363636" customWidth="1"/>
+    <col min="9" max="9" width="12.1090909090909" customWidth="1"/>
+    <col min="10" max="10" width="7.89090909090909" customWidth="1"/>
+    <col min="11" max="11" width="10.1090909090909" customWidth="1"/>
+    <col min="12" max="12" width="26.3363636363636" customWidth="1"/>
+    <col min="15" max="15" width="11.4454545454545" customWidth="1"/>
+    <col min="16" max="16" width="13.5545454545455" customWidth="1"/>
+    <col min="31" max="31" width="12.6636363636364" customWidth="1"/>
+    <col min="32" max="32" width="4.44545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.2" spans="1:32">
+    <row r="1" ht="18.5" spans="1:32">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1361,7 +1355,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44162</v>
+        <v>44164</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1416,7 +1410,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" ht="15.6" spans="1:16">
+    <row r="4" ht="15" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1576,7 +1570,7 @@
       </c>
       <c r="P7" s="6">
         <f>ROUND(COUNTIF(H$5:H$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>106</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1736,7 +1730,7 @@
       </c>
       <c r="P11" s="6">
         <f>AVERAGE(P5:P10)</f>
-        <v>134.5</v>
+        <v>156.5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2085,7 +2079,9 @@
       <c r="G22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I22" s="6" t="s">
         <v>1</v>
       </c>
@@ -2114,7 +2110,9 @@
       <c r="G23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I23" s="6" t="s">
         <v>1</v>
       </c>
@@ -2143,7 +2141,9 @@
       <c r="G24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I24" s="6" t="s">
         <v>1</v>
       </c>
@@ -2172,7 +2172,9 @@
       <c r="G25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>1</v>
       </c>
@@ -2201,7 +2203,9 @@
       <c r="G26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I26" s="6" t="s">
         <v>1</v>
       </c>
@@ -2230,7 +2234,9 @@
       <c r="G27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I27" s="6" t="s">
         <v>1</v>
       </c>
@@ -2259,7 +2265,9 @@
       <c r="G28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I28" s="6" t="s">
         <v>1</v>
       </c>
@@ -2288,7 +2296,9 @@
       <c r="G29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I29" s="6" t="s">
         <v>1</v>
       </c>
@@ -2317,7 +2327,9 @@
       <c r="G30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I30" s="6" t="s">
         <v>1</v>
       </c>
@@ -2714,7 +2726,9 @@
       <c r="G47" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H47" s="6"/>
+      <c r="H47" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I47" s="6" t="s">
         <v>1</v>
       </c>
@@ -2743,7 +2757,9 @@
       <c r="G48" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I48" s="6" t="s">
         <v>1</v>
       </c>
@@ -2772,7 +2788,9 @@
       <c r="G49" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I49" s="6" t="s">
         <v>1</v>
       </c>
@@ -2801,7 +2819,9 @@
       <c r="G50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I50" s="6" t="s">
         <v>1</v>
       </c>
@@ -2830,7 +2850,9 @@
       <c r="G51" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H51" s="6"/>
+      <c r="H51" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I51" s="6" t="s">
         <v>1</v>
       </c>
@@ -2859,7 +2881,9 @@
       <c r="G52" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I52" s="6" t="s">
         <v>1</v>
       </c>
@@ -2888,7 +2912,9 @@
       <c r="G53" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I53" s="6" t="s">
         <v>1</v>
       </c>
@@ -2917,7 +2943,9 @@
       <c r="G54" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I54" s="6" t="s">
         <v>1</v>
       </c>
@@ -2944,7 +2972,9 @@
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I55" s="6" t="s">
         <v>1</v>
       </c>
@@ -2971,7 +3001,9 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I56" s="6" t="s">
         <v>1</v>
       </c>
@@ -3000,7 +3032,9 @@
       <c r="G57" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H57" s="6"/>
+      <c r="H57" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I57" s="6" t="s">
         <v>1</v>
       </c>
@@ -3029,7 +3063,9 @@
       <c r="G58" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H58" s="6"/>
+      <c r="H58" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I58" s="6" t="s">
         <v>1</v>
       </c>
@@ -3075,7 +3111,7 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F51:H51 J51:L51 I51:I58 F5:L50 F52:H58 J52:L58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F51:G51 J51:L51 H22:H30 H47:H58 I51:I58 J52:L58 F5:L21 F22:G30 I22:L30 F52:G58 F31:L46 F47:G50 I47:L50">
       <formula1>$AE$1:$AE$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -5,22 +5,22 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\MilestoneCompletion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\niit\Sept-2020---Jan-2021\Grade 2018\MilestoneCompletion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99110060-9595-438E-AECD-CB33DDED4AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F5FCB0-5C2C-410B-B958-EB69527C9144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -725,31 +725,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47:J58"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="50.375" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="26.375" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="31" max="31" width="12.625" customWidth="1"/>
-    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -758,7 +758,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -798,7 +798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -813,7 +813,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -856,7 +856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="4">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -940,7 +940,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="4">
         <v>3</v>
@@ -982,7 +982,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4">
         <v>4</v>
@@ -1024,7 +1024,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="4">
         <v>5</v>
@@ -1063,10 +1063,10 @@
       </c>
       <c r="P9" s="5">
         <f>ROUND(COUNTIF(K$5:K$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="4">
         <v>6</v>
@@ -1108,7 +1108,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4">
         <v>7</v>
@@ -1147,10 +1147,10 @@
       </c>
       <c r="P11" s="5">
         <f>AVERAGE(P5:P10)</f>
-        <v>196.16666666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+        <v>212.83333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4">
         <v>8</v>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4">
         <v>9</v>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4">
         <v>10</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="4">
         <v>11</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="4">
         <v>12</v>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="4">
         <v>13</v>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="4">
         <v>14</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="4">
         <v>15</v>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="4">
         <v>16</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="4">
         <v>17</v>
@@ -1498,7 +1498,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="4">
         <v>18</v>
@@ -1531,7 +1531,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4">
         <v>19</v>
@@ -1564,7 +1564,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="4">
         <v>20</v>
@@ -1597,7 +1597,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="4">
         <v>21</v>
@@ -1630,7 +1630,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="4">
         <v>22</v>
@@ -1663,7 +1663,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="4">
         <v>23</v>
@@ -1696,7 +1696,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="4">
         <v>24</v>
@@ -1729,7 +1729,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4">
         <v>25</v>
@@ -1762,7 +1762,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4">
         <v>26</v>
@@ -1795,7 +1795,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="4">
         <v>27</v>
@@ -1814,11 +1814,13 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="4">
         <v>28</v>
@@ -1837,11 +1839,13 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="4">
         <v>29</v>
@@ -1860,11 +1864,13 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="K33" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="4">
         <v>30</v>
@@ -1883,11 +1889,13 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="K34" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L34" s="5"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="4">
         <v>31</v>
@@ -1906,11 +1914,13 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="4">
         <v>32</v>
@@ -1929,11 +1939,13 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L36" s="5"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="4">
         <v>33</v>
@@ -1952,11 +1964,13 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L37" s="5"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="4">
         <v>34</v>
@@ -1975,11 +1989,13 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="K38" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L38" s="5"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="4">
         <v>35</v>
@@ -1998,11 +2014,13 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="K39" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L39" s="5"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="4">
         <v>36</v>
@@ -2021,11 +2039,13 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="K40" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="4">
         <v>37</v>
@@ -2044,11 +2064,13 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="K41" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="4">
         <v>38</v>
@@ -2067,11 +2089,13 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="K42" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L42" s="5"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="4">
         <v>39</v>
@@ -2090,11 +2114,13 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="K43" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L43" s="5"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="4">
         <v>40</v>
@@ -2113,11 +2139,13 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="K44" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="4">
         <v>41</v>
@@ -2136,11 +2164,13 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="K45" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="4">
         <v>42</v>
@@ -2159,11 +2189,13 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="K46" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="4">
         <v>43</v>
@@ -2196,7 +2228,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="4">
         <v>44</v>
@@ -2229,7 +2261,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="4">
         <v>45</v>
@@ -2262,7 +2294,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="4">
         <v>46</v>
@@ -2295,7 +2327,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="4">
         <v>47</v>
@@ -2328,7 +2360,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="4">
         <v>48</v>
@@ -2361,7 +2393,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="4">
         <v>49</v>
@@ -2394,7 +2426,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="4">
         <v>50</v>
@@ -2427,7 +2459,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="4">
         <v>51</v>
@@ -2458,7 +2490,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="4">
         <v>52</v>
@@ -2489,7 +2521,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="4">
         <v>53</v>
@@ -2522,7 +2554,7 @@
       <c r="L57" s="5"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="4">
         <v>54</v>
@@ -2555,7 +2587,7 @@
       <c r="L58" s="5"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2570,7 +2602,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\niit\Sept-2020---Jan-2021\Grade 2018\MilestoneCompletion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F5FCB0-5C2C-410B-B958-EB69527C9144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20328" windowHeight="8820" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -274,8 +268,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,14 +316,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,19 +469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.599963377788629"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,8 +491,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -378,40 +701,326 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -427,19 +1036,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -452,8 +1055,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11149965" y="124460"/>
-          <a:ext cx="947420" cy="309245"/>
+          <a:off x="10946765" y="124460"/>
+          <a:ext cx="934720" cy="323215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -717,48 +1320,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" customWidth="1"/>
-    <col min="32" max="32" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.11111111111111" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="50.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="8.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="16.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="12.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
+    <col min="11" max="11" width="10.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="11.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="13.4444444444444" customWidth="1"/>
+    <col min="31" max="31" width="12.6666666666667" customWidth="1"/>
+    <col min="32" max="32" width="4.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="19.2" spans="1:32">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44169</v>
+        <v>44171</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -776,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -798,7 +1401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -813,1781 +1416,1787 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.6" spans="1:16">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="6">
         <f>ROUND(COUNTIF(F$5:F$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="6">
         <f>ROUND(COUNTIF(G$5:G$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <f>ROUND(COUNTIF(H$5:H$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <f>ROUND(COUNTIF(I$5:I$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="6">
         <f>ROUND(COUNTIF(K$5:K$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="6">
         <f>ROUND(COUNTIF(J$5:J$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="6">
         <f>AVERAGE(P5:P10)</f>
-        <v>212.83333333333334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+        <v>215.833333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>18</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1"/>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>19</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>20</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>21</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>22</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>23</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>24</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>25</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="6"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1"/>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>26</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="6"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1"/>
-      <c r="B31" s="4">
+      <c r="B31" s="5">
         <v>27</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="6"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1"/>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <v>28</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="6"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1"/>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>29</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1"/>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>30</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="6"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1"/>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>31</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="6"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1"/>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>32</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="6"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1"/>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>33</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="6"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1"/>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>34</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="6"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1"/>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>35</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="6"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1"/>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <v>36</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="6"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1"/>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>37</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" s="6"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1"/>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>38</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" s="6"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1"/>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>39</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="6"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1"/>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>40</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="6"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1"/>
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <v>41</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" s="6"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1"/>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>42</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L46" s="6"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1"/>
-      <c r="B47" s="4">
+      <c r="B47" s="5">
         <v>43</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="6"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1"/>
-      <c r="B48" s="4">
+      <c r="B48" s="5">
         <v>44</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="6"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1"/>
-      <c r="B49" s="4">
+      <c r="B49" s="5">
         <v>45</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="6"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1"/>
-      <c r="B50" s="4">
+      <c r="B50" s="5">
         <v>46</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="6"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1"/>
-      <c r="B51" s="4">
+      <c r="B51" s="5">
         <v>47</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="6"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1"/>
-      <c r="B52" s="4">
+      <c r="B52" s="5">
         <v>48</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="6"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1"/>
-      <c r="B53" s="4">
+      <c r="B53" s="5">
         <v>49</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L53" s="5"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="6"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1"/>
-      <c r="B54" s="4">
+      <c r="B54" s="5">
         <v>50</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" s="6"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="1"/>
-      <c r="B55" s="4">
+      <c r="B55" s="5">
         <v>51</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" s="6"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1"/>
-      <c r="B56" s="4">
+      <c r="B56" s="5">
         <v>52</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" s="6"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="1"/>
-      <c r="B57" s="4">
+      <c r="B57" s="5">
         <v>53</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L57" s="6"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="1"/>
-      <c r="B58" s="4">
+      <c r="B58" s="5">
         <v>54</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="6"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2602,7 +3211,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2621,14 +3230,14 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:L58" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:L58">
       <formula1>$AE$1:$AE$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -424,7 +424,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -720,7 +720,7 @@
   <dimension ref="A1:AF60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44161</v>
+        <v>44171</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -927,7 +927,7 @@
       </c>
       <c r="P6" s="5">
         <f>ROUND(COUNTIF(G$5:G$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="P11" s="5">
         <f>AVERAGE(P5:P10)</f>
-        <v>125</v>
+        <v>129.16666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,9 @@
         <v>55</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -1757,7 +1759,9 @@
         <v>56</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -2324,7 +2328,9 @@
         <v>80</v>
       </c>
       <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="G55" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -2349,7 +2355,9 @@
         <v>81</v>
       </c>
       <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="85">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -263,6 +263,14 @@
   </si>
   <si>
     <t>Introducing Transactions</t>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -424,7 +432,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -720,7 +728,7 @@
   <dimension ref="A1:AF60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -752,7 +760,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44171</v>
+        <v>44182</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -927,7 +935,7 @@
       </c>
       <c r="P6" s="5">
         <f>ROUND(COUNTIF(G$5:G$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>250</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1127,7 +1135,7 @@
       </c>
       <c r="P11" s="5">
         <f>AVERAGE(P5:P10)</f>
-        <v>129.16666666666666</v>
+        <v>143.83333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -1784,7 +1792,9 @@
         <v>57</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -1807,7 +1817,9 @@
         <v>58</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -1830,7 +1842,9 @@
         <v>59</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -1853,7 +1867,9 @@
         <v>60</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -1876,7 +1892,9 @@
         <v>61</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -1899,7 +1917,9 @@
         <v>62</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -1922,7 +1942,9 @@
         <v>63</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -1945,7 +1967,9 @@
         <v>64</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -1968,7 +1992,9 @@
         <v>65</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="G41" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -1991,7 +2017,9 @@
         <v>66</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -2014,7 +2042,9 @@
         <v>67</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -2037,7 +2067,9 @@
         <v>68</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -2060,7 +2092,9 @@
         <v>69</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -2083,7 +2117,9 @@
         <v>70</v>
       </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -2107,7 +2143,7 @@
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5" t="s">

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -290,6 +290,7 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -298,6 +299,7 @@
       <sz val="15"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -306,6 +308,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -314,6 +317,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -432,7 +436,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -760,7 +764,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44182</v>
+        <v>44189</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
+++ b/Grade 2018/MilestoneCompletion/Sem5_JSF_HBN_WS_Spring_Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="506"/>
+    <workbookView windowWidth="20760" windowHeight="8820" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem5 Complete Status" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="83">
   <si>
     <t>Semester 5 Completion Status as on:</t>
   </si>
@@ -263,21 +263,19 @@
   </si>
   <si>
     <t>Introducing Transactions</t>
-  </si>
-  <si>
-    <t>Completed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,7 +288,6 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -299,7 +296,6 @@
       <sz val="15"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -308,7 +304,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -317,19 +312,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,19 +469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.599963377788629"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,8 +491,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -384,40 +701,326 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -433,19 +1036,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -723,48 +1320,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" customWidth="1"/>
-    <col min="32" max="32" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.11111111111111" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="50.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="8.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="16.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="12.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
+    <col min="11" max="11" width="10.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="11.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="13.5555555555556" customWidth="1"/>
+    <col min="31" max="31" width="12.6666666666667" customWidth="1"/>
+    <col min="32" max="32" width="4.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="19.2" spans="1:32">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -782,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -804,7 +1401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -819,1649 +1416,1699 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.6" spans="1:16">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="6">
         <f>ROUND(COUNTIF(F$5:F$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="6">
         <f>ROUND(COUNTIF(G$5:G$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <f>ROUND(COUNTIF(H$5:H$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <f>ROUND(COUNTIF(I$5:I$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="6">
         <f>ROUND(COUNTIF(K$5:K$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="6">
         <f>ROUND(COUNTIF(J$5:J$58,"=Completed")/COUNTIF(L$5:L$58,"=Completed")*100,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="6">
         <f>AVERAGE(P5:P10)</f>
-        <v>143.83333333333334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>18</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1"/>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>19</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>20</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>21</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>22</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>23</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>24</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>25</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="6"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1"/>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>26</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="6"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1"/>
-      <c r="B31" s="4">
+      <c r="B31" s="5">
         <v>27</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1"/>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <v>28</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1"/>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>29</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1"/>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>30</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1"/>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>31</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1"/>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>32</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1"/>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>33</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1"/>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>34</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1"/>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>35</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1"/>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <v>36</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1"/>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>37</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1"/>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>38</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1"/>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>39</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1"/>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>40</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1"/>
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <v>41</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1"/>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>42</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1"/>
-      <c r="B47" s="4">
+      <c r="B47" s="5">
         <v>43</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="6"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1"/>
-      <c r="B48" s="4">
+      <c r="B48" s="5">
         <v>44</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="6"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1"/>
-      <c r="B49" s="4">
+      <c r="B49" s="5">
         <v>45</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="6"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1"/>
-      <c r="B50" s="4">
+      <c r="B50" s="5">
         <v>46</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="6"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1"/>
-      <c r="B51" s="4">
+      <c r="B51" s="5">
         <v>47</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="6"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1"/>
-      <c r="B52" s="4">
+      <c r="B52" s="5">
         <v>48</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="6"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1"/>
-      <c r="B53" s="4">
+      <c r="B53" s="5">
         <v>49</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L53" s="5"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="6"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1"/>
-      <c r="B54" s="4">
+      <c r="B54" s="5">
         <v>50</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" s="6"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="1"/>
-      <c r="B55" s="4">
+      <c r="B55" s="5">
         <v>51</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" s="6"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1"/>
-      <c r="B56" s="4">
+      <c r="B56" s="5">
         <v>52</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" s="6"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="1"/>
-      <c r="B57" s="4">
+      <c r="B57" s="5">
         <v>53</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L57" s="6"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="1"/>
-      <c r="B58" s="4">
+      <c r="B58" s="5">
         <v>54</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="6"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2476,7 +3123,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2495,14 +3142,14 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:L58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:H30 J30:L30 I30:I58 F5:L29 F31:H58 J31:L58">
       <formula1>$AE$1:$AE$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>